--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C68DE52-133A-496D-A29F-9D1166AA4E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6471D6ED-AC53-4CE5-A6FF-A91A3A0CFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="735" windowWidth="28800" windowHeight="15135" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6120" yWindow="4380" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -249,7 +249,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬쿨타임 감소 5%</t>
+    <t>공격속도 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1455,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1515,7 +1535,107 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6471D6ED-AC53-4CE5-A6FF-A91A3A0CFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA528DBD-C7AC-40F6-AC87-4F7F7241BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="4380" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>방어력 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 타격 횟수 증가 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,25 +684,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="8" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" customWidth="1"/>
+    <col min="7" max="8" width="15.19921875" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -738,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -758,7 +762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -778,7 +782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -798,7 +802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -818,7 +822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -838,7 +842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -858,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -878,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -898,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -918,7 +922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -938,12 +942,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0.1</v>
@@ -955,15 +959,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.2</v>
@@ -975,18 +979,18 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="1">
         <v>25</v>
@@ -995,18 +999,18 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -1015,438 +1019,438 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.1</v>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2</v>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
       </c>
       <c r="D19" s="1">
         <v>50</v>
       </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.15</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.7</v>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.05</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.1</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.15</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.2</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.3</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.05</v>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
       </c>
       <c r="D28" s="1">
         <v>100</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.1</v>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
       </c>
       <c r="D29" s="1">
         <v>50</v>
       </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.15</v>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
       </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.2</v>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0.4</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.3</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>0.1</v>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.01</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>0.2</v>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.02</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>0.3</v>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.03</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
       </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>0.4</v>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.04</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
       </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>0.5</v>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.05</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>100</v>
@@ -1455,18 +1459,18 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
         <v>50</v>
@@ -1475,18 +1479,18 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
         <v>25</v>
@@ -1495,18 +1499,18 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -1515,18 +1519,18 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>0.3</v>
@@ -1535,107 +1539,27 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>50</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>25</v>
-      </c>
-      <c r="E45" s="1">
-        <v>3</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1">
-        <v>18</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>18</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>5</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1653,14 +1577,14 @@
       <selection activeCell="D2" sqref="D2:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1703,7 +1627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1734,7 +1658,7 @@
         <v>2.6954177897574125E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1758,7 +1682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1782,7 +1706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1806,7 +1730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1830,7 +1754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1854,7 +1778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1878,7 +1802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1902,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1926,7 +1850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1950,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1974,7 +1898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1998,7 +1922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2022,7 +1946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2046,7 +1970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2070,7 +1994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2094,7 +2018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2118,7 +2042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2142,7 +2066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2166,7 +2090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2190,7 +2114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2214,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2238,7 +2162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2262,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2286,7 +2210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2310,7 +2234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2334,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2358,7 +2282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2382,7 +2306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2406,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2430,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2454,7 +2378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2478,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2502,7 +2426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2526,7 +2450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2550,7 +2474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2574,7 +2498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2598,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2622,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2646,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2670,7 +2594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D43">
         <f>SUM(D3:D42)</f>
         <v>1484</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA528DBD-C7AC-40F6-AC87-4F7F7241BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11CC4C-9A8D-4231-8B2E-41FE303DD4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -687,7 +687,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>22</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11CC4C-9A8D-4231-8B2E-41FE303DD4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397F04A-1F72-4838-9F8B-C2060B0C9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -249,31 +249,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격속도 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 4%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술 타격 횟수 증가 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,25 +680,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="37.59765625" customWidth="1"/>
-    <col min="7" max="8" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -742,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -762,7 +758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -782,7 +778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -802,7 +798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -822,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -842,7 +838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -862,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -882,7 +878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -902,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -922,7 +918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -942,7 +938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -962,7 +958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -982,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1002,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1022,7 +1018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1042,7 +1038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1062,7 +1058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1082,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1122,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1182,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1302,7 +1298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1342,15 +1338,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1359,18 +1355,18 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.02</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1379,18 +1375,18 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>0.03</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1399,18 +1395,18 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>0.04</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1419,18 +1415,18 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1439,127 +1435,27 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>25</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1577,14 +1473,14 @@
       <selection activeCell="D2" sqref="D2:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1627,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1658,7 +1554,7 @@
         <v>2.6954177897574125E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1682,7 +1578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1706,7 +1602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1730,7 +1626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1754,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1778,7 +1674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1802,7 +1698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1826,7 +1722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1850,7 +1746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1874,7 +1770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1898,7 +1794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1922,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1946,7 +1842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1970,7 +1866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1994,7 +1890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2018,7 +1914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2042,7 +1938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2066,7 +1962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2090,7 +1986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2114,7 +2010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2138,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2162,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2186,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2210,7 +2106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2234,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2258,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2282,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2306,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2330,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2354,7 +2250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2378,7 +2274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2402,7 +2298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2426,7 +2322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2450,7 +2346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2474,7 +2370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2498,7 +2394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2522,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2546,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2570,7 +2466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2594,7 +2490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D43">
         <f>SUM(D3:D42)</f>
         <v>1484</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397F04A-1F72-4838-9F8B-C2060B0C9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60466E5E-FE18-4698-BE4B-D2D9EB6A5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -270,6 +270,26 @@
   </si>
   <si>
     <t>방어력 무시 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +703,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,7 +769,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -849,7 +869,7 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -949,7 +969,7 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1049,7 +1069,7 @@
         <v>0.05</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1149,7 +1169,7 @@
         <v>0.05</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1249,13 +1269,13 @@
         <v>0.1</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1275,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60466E5E-FE18-4698-BE4B-D2D9EB6A5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926CA6C-5150-4B53-BDC9-80DB5C5CF426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926CA6C-5150-4B53-BDC9-80DB5C5CF426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E6FBE-08F3-4648-94C7-082B32A9B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -246,10 +246,6 @@
   </si>
   <si>
     <t>경험치획득 증가 15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 타격 횟수 증가 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1275,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1435,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1455,27 +1451,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E6FBE-08F3-4648-94C7-082B32A9B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694520CC-BBAD-4F2B-B432-9D697A101EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694520CC-BBAD-4F2B-B432-9D697A101EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C3125-AFA7-40BE-A094-A0B5B89F7DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,26 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술데미지 증가 10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +266,26 @@
   </si>
   <si>
     <t>기술데미지 증가 50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +699,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C3125-AFA7-40BE-A094-A0B5B89F7DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6EFCF3-A78B-4815-ACCA-902AF3BF8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -273,19 +273,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 20</t>
+    <t>방어력 무시 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6EFCF3-A78B-4815-ACCA-902AF3BF8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA8DB3-E3E3-4DC6-BF11-AAD57F3883EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4230" yWindow="6300" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,11 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 15</t>
+    <t>방어력 무시 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +699,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1422,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA8DB3-E3E3-4DC6-BF11-AAD57F3883EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5DF44-2B73-4842-8FC6-24BE730512D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="6300" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5385" yWindow="3975" windowWidth="26565" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5DF44-2B73-4842-8FC6-24BE730512D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8798DFE-6249-40BE-BC5A-83011F16402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="3975" windowWidth="26565" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -277,15 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 10</t>
+    <t>방어력 무시 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +699,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8798DFE-6249-40BE-BC5A-83011F16402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AA12A-F7B2-4379-959E-54B14028DD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="10140" yWindow="1275" windowWidth="25815" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -233,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치획득 증가 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드획득 증가 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골드획득 증가 15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,43 +241,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술데미지 증가 10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술데미지 증가 30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술데미지 증가 40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어력 무시 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 120%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득 증가 25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드획득 증가 25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 140%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 250%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 300% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 180% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 120% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 30% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 60% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 80% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 100% 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="1">
         <v>120</v>
@@ -771,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="1">
         <v>50</v>
@@ -791,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
@@ -811,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -822,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -831,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
@@ -851,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -862,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="1">
         <v>120</v>
@@ -871,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -891,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -902,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D10" s="1">
         <v>25</v>
@@ -911,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -931,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -951,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -962,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="1">
         <v>120</v>
@@ -971,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="1">
         <v>50</v>
@@ -991,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>25</v>
@@ -1011,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -1031,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D17" s="1">
         <v>0.5</v>
@@ -1051,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D18" s="1">
         <v>120</v>
@@ -1071,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="1">
         <v>50</v>
@@ -1091,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1102,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -1111,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -1131,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1142,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="1">
         <v>0.7</v>
@@ -1151,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1162,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -1171,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -1191,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1202,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -1211,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1231,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
@@ -1251,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1262,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D28" s="1">
         <v>120</v>
@@ -1271,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1282,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D29" s="1">
         <v>50</v>
@@ -1291,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1302,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
@@ -1311,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -1331,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1342,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>0.3</v>
@@ -1351,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1371,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1391,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1411,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1431,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1451,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AA12A-F7B2-4379-959E-54B14028DD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60D8C5-F9BB-452C-8421-9D58972CCB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1275" windowWidth="25815" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +318,14 @@
   </si>
   <si>
     <t>체력 100% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1491,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60D8C5-F9BB-452C-8421-9D58972CCB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726A2F6-3C2C-404A-B44E-D6C155321ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -241,38 +241,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술데미지 증가 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 90%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 120%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술데미지 증가 200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치획득 증가 25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,18 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크리티컬데미지 증가 40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬데미지 증가 140%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬데미지 증가 250%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 300% 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,11 +281,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술데미지 증가 50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬데미지 증가 30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -951,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -991,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="1">
         <v>120</v>
@@ -1011,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="1">
         <v>50</v>
@@ -1031,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="1">
         <v>25</v>
@@ -1051,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -1071,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>0.5</v>
@@ -1091,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1302,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="1">
         <v>120</v>
@@ -1311,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D29" s="1">
         <v>50</v>
@@ -1331,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1342,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>25</v>
@@ -1351,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -1371,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>0.3</v>
@@ -1391,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1411,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1431,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1451,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1462,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1471,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1482,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1491,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726A2F6-3C2C-404A-B44E-D6C155321ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29891F6-B16F-4F47-B543-3270C6E07F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -285,18 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술데미지 증가 300%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +318,18 @@
   </si>
   <si>
     <t>크리티컬데미지 증가 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29891F6-B16F-4F47-B543-3270C6E07F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB2958-3E1A-4210-ACDC-2CBACE02B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치획득 증가 25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,15 +317,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB2958-3E1A-4210-ACDC-2CBACE02B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27AC36-ADD8-4EA5-9831-0BBD9914BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기술데미지 증가 300%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,15 +313,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 15</t>
+    <t>방어력 무시 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어력 무시 60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27AC36-ADD8-4EA5-9831-0BBD9914BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BA8DE8-0FC9-4F45-A58F-B99BC80B989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>방어력 무시 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BA8DE8-0FC9-4F45-A58F-B99BC80B989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A29492-34D5-417A-86AB-5E5AA2BE4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7620" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치획득 증가 25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골드획득 증가 25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,23 +309,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득 증가 70%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1275,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A29492-34D5-417A-86AB-5E5AA2BE4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB506283-C5AF-4F99-99C9-217D20059269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3765" yWindow="3960" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -313,14 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 무시 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +322,14 @@
   </si>
   <si>
     <t>경험치획득 증가 70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 무시 400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB506283-C5AF-4F99-99C9-217D20059269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A0D4D-23CC-4E24-A476-9B3A0E35DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3960" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6795" yWindow="3690" windowWidth="21180" windowHeight="11805" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치획득 증가 15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골드획득 증가 25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>방어력 무시 400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득 증가 100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1275,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CostumeAbility.xlsx
+++ b/Assets/06.Table/CostumeAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A0D4D-23CC-4E24-A476-9B3A0E35DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1362DE-8F7F-4F2B-9352-D4D8D6D3CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3690" windowWidth="21180" windowHeight="11805" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeAbility" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 무시 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 무시 200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,7 +325,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치획득 증가 100%</t>
+    <t>방어력 무시 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득 증가 120%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치획득 증가 90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -1215,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -1235,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D25" s="1">
         <v>25</v>
@@ -1255,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1275,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D27" s="1">
         <v>0.7</v>
@@ -1406,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1426,7 +1430,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -1446,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1455,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D36" s="1">
         <v>8</v>
@@ -1475,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D37" s="1">
         <v>0.3</v>
@@ -1495,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
